--- a/data/riv_data.xlsx
+++ b/data/riv_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Travail\Modèle Sescousse\modele_sescousse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBA1813-F2F2-442A-8731-64857A4073DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254F2AF0-F1EE-4C01-A660-EB9D5AD9FDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23256" yWindow="2304" windowWidth="21600" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11566,7 +11566,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11739,8 +11739,8 @@
         <v>0.08</v>
       </c>
       <c r="E9">
-        <f>E6+0.01*C6*D6</f>
-        <v>20.195899999999998</v>
+        <f>E6</f>
+        <v>20.1312</v>
       </c>
     </row>
   </sheetData>

--- a/data/riv_data.xlsx
+++ b/data/riv_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Travail\Modèle Sescousse\modele_sescousse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apryet/recherche/rezin/drainage/model_sescousse/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254F2AF0-F1EE-4C01-A660-EB9D5AD9FDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB36206-38CB-FB44-9508-0EE5F1083D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23256" yWindow="2304" windowWidth="21600" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,19 @@
     <sheet name="Comparaison " sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -114,7 +127,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +139,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,12 +147,14 @@
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,6 +162,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -240,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -423,6 +447,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5130,8 +5155,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6115050" y="3431577"/>
-          <a:ext cx="6136453" cy="3996354"/>
+          <a:off x="6801522" y="3541058"/>
+          <a:ext cx="6614571" cy="4121860"/>
           <a:chOff x="6149464" y="3609125"/>
           <a:chExt cx="6145956" cy="3998102"/>
         </a:xfrm>
@@ -6765,8 +6790,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9665970" y="110489"/>
-          <a:ext cx="5372100" cy="3962401"/>
+          <a:off x="10862310" y="110489"/>
+          <a:ext cx="5867400" cy="3962401"/>
           <a:chOff x="9673590" y="110490"/>
           <a:chExt cx="5372100" cy="3960495"/>
         </a:xfrm>
@@ -9021,8 +9046,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5087898" y="419324"/>
-          <a:ext cx="6123664" cy="3879598"/>
+          <a:off x="5481653" y="410489"/>
+          <a:ext cx="6659466" cy="3789346"/>
           <a:chOff x="6149464" y="3609125"/>
           <a:chExt cx="6145956" cy="3998102"/>
         </a:xfrm>
@@ -10043,8 +10068,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="116477" y="416968"/>
-          <a:ext cx="5372099" cy="3884769"/>
+          <a:off x="116477" y="406228"/>
+          <a:ext cx="5835925" cy="3798327"/>
           <a:chOff x="9673590" y="110490"/>
           <a:chExt cx="5372100" cy="3960495"/>
         </a:xfrm>
@@ -11566,18 +11591,18 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11597,7 +11622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -11611,13 +11636,13 @@
         <v>0.04</v>
       </c>
       <c r="E2" s="3">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -11627,15 +11652,15 @@
       <c r="C3">
         <v>602</v>
       </c>
-      <c r="D3" s="4">
-        <v>0.1</v>
+      <c r="D3" s="72">
+        <v>0.06</v>
       </c>
       <c r="E3">
         <f>E2-C3*D3*0.01</f>
-        <v>19.998000000000001</v>
+        <v>-0.36119999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -11650,10 +11675,10 @@
       </c>
       <c r="E4">
         <f>E3</f>
-        <v>19.998000000000001</v>
+        <v>-0.36119999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -11663,15 +11688,15 @@
       <c r="C5">
         <v>838</v>
       </c>
-      <c r="D5" s="4">
-        <v>7.0000000000000007E-2</v>
+      <c r="D5" s="72">
+        <v>0.06</v>
       </c>
       <c r="E5">
         <f>E3-C5*D5*0.01-0.25</f>
-        <v>19.1614</v>
+        <v>-1.1139999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -11686,10 +11711,10 @@
       </c>
       <c r="E6">
         <f>E4+C4*D4*0.01</f>
-        <v>20.1312</v>
+        <v>-0.22799999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -11704,10 +11729,10 @@
       </c>
       <c r="E7">
         <f>E2+C2*D2*0.01</f>
-        <v>20.903200000000002</v>
+        <v>0.30320000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -11717,15 +11742,15 @@
       <c r="C8">
         <v>1307</v>
       </c>
-      <c r="D8" s="4">
-        <v>0.1</v>
+      <c r="D8" s="72">
+        <v>0.06</v>
       </c>
       <c r="E8">
         <f>E2</f>
-        <v>20.6</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -11740,7 +11765,7 @@
       </c>
       <c r="E9">
         <f>E6</f>
-        <v>20.1312</v>
+        <v>-0.22799999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -11758,18 +11783,18 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -11792,7 +11817,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9">
@@ -11810,7 +11835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="12">
@@ -11823,7 +11848,7 @@
       <c r="F3" s="47"/>
       <c r="G3" s="49"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="50">
         <v>1</v>
       </c>
@@ -11846,7 +11871,7 @@
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="51"/>
       <c r="B5" s="54"/>
       <c r="C5" s="16">
@@ -11859,7 +11884,7 @@
       <c r="F5" s="32"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="51"/>
       <c r="B6" s="54"/>
       <c r="C6" s="16">
@@ -11872,7 +11897,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="52"/>
       <c r="B7" s="55"/>
       <c r="C7" s="12">
@@ -11885,7 +11910,7 @@
       <c r="F7" s="33"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34">
         <v>2</v>
       </c>
@@ -11908,7 +11933,7 @@
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="38"/>
       <c r="C9" s="16">
@@ -11921,7 +11946,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
       <c r="B10" s="38"/>
       <c r="C10" s="16">
@@ -11934,7 +11959,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
       <c r="B11" s="38"/>
       <c r="C11" s="16">
@@ -11947,7 +11972,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
       <c r="B12" s="38"/>
       <c r="C12" s="16">
@@ -11960,7 +11985,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
       <c r="B13" s="38"/>
       <c r="C13" s="16">
@@ -11973,7 +11998,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
       <c r="B14" s="39"/>
       <c r="C14" s="12">
@@ -11986,7 +12011,7 @@
       <c r="F14" s="33"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="35">
         <v>3</v>
       </c>
@@ -12009,7 +12034,7 @@
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
       <c r="B16" s="44"/>
       <c r="C16" s="16">
@@ -12022,7 +12047,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
       <c r="B17" s="44"/>
       <c r="C17" s="16">
@@ -12035,7 +12060,7 @@
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="44"/>
       <c r="C18" s="16">
@@ -12048,7 +12073,7 @@
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
       <c r="B19" s="44"/>
       <c r="C19" s="16">
@@ -12061,7 +12086,7 @@
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
       <c r="B20" s="44"/>
       <c r="C20" s="16">
@@ -12074,7 +12099,7 @@
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
       <c r="B21" s="45"/>
       <c r="C21" s="12">
@@ -12119,20 +12144,20 @@
       <selection activeCell="G11" sqref="G11:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="5"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="5"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -12155,7 +12180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="56">
         <v>4</v>
       </c>
@@ -12178,7 +12203,7 @@
       </c>
       <c r="G2" s="66"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="57"/>
       <c r="B3" s="70"/>
       <c r="C3" s="16">
@@ -12191,7 +12216,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="67"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="57"/>
       <c r="B4" s="70"/>
       <c r="C4" s="16">
@@ -12204,7 +12229,7 @@
       <c r="F4" s="32"/>
       <c r="G4" s="67"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="57"/>
       <c r="B5" s="70"/>
       <c r="C5" s="16">
@@ -12217,7 +12242,7 @@
       <c r="F5" s="32"/>
       <c r="G5" s="67"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="57"/>
       <c r="B6" s="70"/>
       <c r="C6" s="16">
@@ -12230,7 +12255,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="67"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="57"/>
       <c r="B7" s="70"/>
       <c r="C7" s="16">
@@ -12243,7 +12268,7 @@
       <c r="F7" s="32"/>
       <c r="G7" s="67"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="57"/>
       <c r="B8" s="70"/>
       <c r="C8" s="16">
@@ -12256,7 +12281,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="67"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="57"/>
       <c r="B9" s="70"/>
       <c r="C9" s="16">
@@ -12269,7 +12294,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="67"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="58"/>
       <c r="B10" s="71"/>
       <c r="C10" s="12">
@@ -12282,7 +12307,7 @@
       <c r="F10" s="33"/>
       <c r="G10" s="68"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="56"/>
       <c r="B11" s="63" t="s">
         <v>21</v>
@@ -12303,7 +12328,7 @@
       </c>
       <c r="G11" s="66"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="57"/>
       <c r="B12" s="64"/>
       <c r="C12" s="16">
@@ -12316,7 +12341,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="67"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="57"/>
       <c r="B13" s="64"/>
       <c r="C13" s="16">
@@ -12329,7 +12354,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="67"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="57"/>
       <c r="B14" s="64"/>
       <c r="C14" s="16">
@@ -12342,7 +12367,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="67"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="57"/>
       <c r="B15" s="64"/>
       <c r="C15" s="16">
@@ -12356,7 +12381,7 @@
       <c r="G15" s="67"/>
       <c r="I15" s="24"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="57"/>
       <c r="B16" s="64"/>
       <c r="C16" s="16">
@@ -12370,7 +12395,7 @@
       <c r="G16" s="67"/>
       <c r="I16" s="24"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="57"/>
       <c r="B17" s="64"/>
       <c r="C17" s="16">
@@ -12383,7 +12408,7 @@
       <c r="F17" s="32"/>
       <c r="G17" s="67"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="58"/>
       <c r="B18" s="65"/>
       <c r="C18" s="12">
@@ -12396,17 +12421,17 @@
       <c r="F18" s="33"/>
       <c r="G18" s="68"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="25"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="25"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="22"/>
       <c r="B21" s="26"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>0</v>
       </c>
@@ -12429,7 +12454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="56">
         <v>1</v>
       </c>
@@ -12452,7 +12477,7 @@
       </c>
       <c r="G23" s="60"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="57"/>
       <c r="B24" s="54"/>
       <c r="C24" s="16">
@@ -12465,7 +12490,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="61"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="57"/>
       <c r="B25" s="54"/>
       <c r="C25" s="16">
@@ -12478,7 +12503,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="61"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="58"/>
       <c r="B26" s="55"/>
       <c r="C26" s="12">
@@ -12491,7 +12516,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="62"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="56">
         <v>2</v>
       </c>
@@ -12514,7 +12539,7 @@
       </c>
       <c r="G27" s="60"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="57"/>
       <c r="B28" s="38"/>
       <c r="C28" s="16">
@@ -12527,7 +12552,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="61"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="57"/>
       <c r="B29" s="38"/>
       <c r="C29" s="16">
@@ -12540,7 +12565,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="61"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="57"/>
       <c r="B30" s="38"/>
       <c r="C30" s="16">
@@ -12553,7 +12578,7 @@
       <c r="F30" s="32"/>
       <c r="G30" s="61"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="57"/>
       <c r="B31" s="38"/>
       <c r="C31" s="16">
@@ -12566,7 +12591,7 @@
       <c r="F31" s="32"/>
       <c r="G31" s="61"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="57"/>
       <c r="B32" s="38"/>
       <c r="C32" s="16">
@@ -12579,7 +12604,7 @@
       <c r="F32" s="32"/>
       <c r="G32" s="61"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="57"/>
       <c r="B33" s="38"/>
       <c r="C33" s="16">
@@ -12592,7 +12617,7 @@
       <c r="F33" s="32"/>
       <c r="G33" s="61"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="57"/>
       <c r="B34" s="38"/>
       <c r="C34" s="16">
@@ -12605,7 +12630,7 @@
       <c r="F34" s="32"/>
       <c r="G34" s="61"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="58"/>
       <c r="B35" s="39"/>
       <c r="C35" s="12">
@@ -12618,7 +12643,7 @@
       <c r="F35" s="33"/>
       <c r="G35" s="62"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="56">
         <v>3</v>
       </c>
@@ -12642,7 +12667,7 @@
       <c r="G36" s="60"/>
       <c r="I36" s="24"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="57"/>
       <c r="B37" s="44"/>
       <c r="C37" s="16">
@@ -12656,7 +12681,7 @@
       <c r="G37" s="61"/>
       <c r="I37" s="27"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="57"/>
       <c r="B38" s="44"/>
       <c r="C38" s="16">
@@ -12670,7 +12695,7 @@
       <c r="G38" s="61"/>
       <c r="I38" s="27"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="57"/>
       <c r="B39" s="44"/>
       <c r="C39" s="16">
@@ -12684,7 +12709,7 @@
       <c r="G39" s="61"/>
       <c r="I39" s="27"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="58"/>
       <c r="B40" s="45"/>
       <c r="C40" s="12">
@@ -12739,80 +12764,80 @@
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C6" s="28"/>
       <c r="G6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C7" s="29"/>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C9" s="29"/>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C10" s="28"/>
       <c r="G10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C11" s="29"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="29"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="29"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="28"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="29"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="29"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="29"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="30"/>
       <c r="C30" s="31"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="28"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="29"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="29"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" s="29"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="30"/>
       <c r="C40" s="31"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="31"/>
       <c r="C41" s="31"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
     </row>
